--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="H2">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="I2">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="J2">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.52018166666667</v>
+        <v>26.07194833333334</v>
       </c>
       <c r="N2">
-        <v>103.560545</v>
+        <v>78.215845</v>
       </c>
       <c r="O2">
-        <v>0.7811694070883366</v>
+        <v>0.7595928012803946</v>
       </c>
       <c r="P2">
-        <v>0.8076479349223241</v>
+        <v>0.7818221335728009</v>
       </c>
       <c r="Q2">
-        <v>363.2087631370856</v>
+        <v>169.1658205301623</v>
       </c>
       <c r="R2">
-        <v>3268.87886823377</v>
+        <v>1522.49238477146</v>
       </c>
       <c r="S2">
-        <v>0.3735658411058034</v>
+        <v>0.2616192891794933</v>
       </c>
       <c r="T2">
-        <v>0.4016874141844863</v>
+        <v>0.2828835171576992</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="H3">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="I3">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="J3">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>15.971694</v>
       </c>
       <c r="O3">
-        <v>0.1204763718863815</v>
+        <v>0.155109029208254</v>
       </c>
       <c r="P3">
-        <v>0.1245600404701547</v>
+        <v>0.1596482641062294</v>
       </c>
       <c r="Q3">
-        <v>56.01611330786267</v>
+        <v>34.54370045822134</v>
       </c>
       <c r="R3">
-        <v>504.145019770764</v>
+        <v>310.893304123992</v>
       </c>
       <c r="S3">
-        <v>0.05761344055300707</v>
+        <v>0.05342272056604871</v>
       </c>
       <c r="T3">
-        <v>0.06195050888353161</v>
+        <v>0.05776488093539769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="H4">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="I4">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="J4">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.346311500000001</v>
+        <v>2.927739</v>
       </c>
       <c r="N4">
-        <v>8.692623000000001</v>
+        <v>5.855478</v>
       </c>
       <c r="O4">
-        <v>0.09835422102528196</v>
+        <v>0.08529816951135136</v>
       </c>
       <c r="P4">
-        <v>0.06779202460752112</v>
+        <v>0.05852960232096958</v>
       </c>
       <c r="Q4">
-        <v>45.73030464807301</v>
+        <v>18.996408089684</v>
       </c>
       <c r="R4">
-        <v>274.3818278884381</v>
+        <v>113.978448538104</v>
       </c>
       <c r="S4">
-        <v>0.04703432695932586</v>
+        <v>0.02937843333725081</v>
       </c>
       <c r="T4">
-        <v>0.03371667516186394</v>
+        <v>0.02117752753651808</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>25.529465</v>
       </c>
       <c r="I5">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="J5">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.52018166666667</v>
+        <v>26.07194833333334</v>
       </c>
       <c r="N5">
-        <v>103.560545</v>
+        <v>78.215845</v>
       </c>
       <c r="O5">
-        <v>0.7811694070883366</v>
+        <v>0.7595928012803946</v>
       </c>
       <c r="P5">
-        <v>0.8076479349223241</v>
+        <v>0.7818221335728009</v>
       </c>
       <c r="Q5">
-        <v>293.7605898842695</v>
+        <v>221.8676308192139</v>
       </c>
       <c r="R5">
-        <v>2643.845308958425</v>
+        <v>1996.808677372925</v>
       </c>
       <c r="S5">
-        <v>0.3021373187585659</v>
+        <v>0.3431239932803778</v>
       </c>
       <c r="T5">
-        <v>0.3248818412880224</v>
+        <v>0.3710128650863877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>25.529465</v>
       </c>
       <c r="I6">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="J6">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,10 +812,10 @@
         <v>15.971694</v>
       </c>
       <c r="O6">
-        <v>0.1204763718863815</v>
+        <v>0.155109029208254</v>
       </c>
       <c r="P6">
-        <v>0.1245600404701547</v>
+        <v>0.1596482641062294</v>
       </c>
       <c r="Q6">
         <v>45.30542255152334</v>
@@ -824,10 +824,10 @@
         <v>407.74880296371</v>
       </c>
       <c r="S6">
-        <v>0.04659732913912604</v>
+        <v>0.07006600037028622</v>
       </c>
       <c r="T6">
-        <v>0.05010511826882391</v>
+        <v>0.07576091457201628</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>25.529465</v>
       </c>
       <c r="I7">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="J7">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.346311500000001</v>
+        <v>2.927739</v>
       </c>
       <c r="N7">
-        <v>8.692623000000001</v>
+        <v>5.855478</v>
       </c>
       <c r="O7">
-        <v>0.09835422102528196</v>
+        <v>0.08529816951135136</v>
       </c>
       <c r="P7">
-        <v>0.06779202460752112</v>
+        <v>0.05852960232096958</v>
       </c>
       <c r="Q7">
-        <v>36.98633577278251</v>
+        <v>24.914536776545</v>
       </c>
       <c r="R7">
-        <v>221.918014636695</v>
+        <v>149.48722065927</v>
       </c>
       <c r="S7">
-        <v>0.038041019476081</v>
+        <v>0.03853097145326628</v>
       </c>
       <c r="T7">
-        <v>0.02726980015277647</v>
+        <v>0.02777516076480809</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1148996666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="H8">
-        <v>0.344699</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="I8">
-        <v>0.005222247538993557</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="J8">
-        <v>0.005431273346901209</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.52018166666667</v>
+        <v>26.07194833333334</v>
       </c>
       <c r="N8">
-        <v>103.560545</v>
+        <v>78.215845</v>
       </c>
       <c r="O8">
-        <v>0.7811694070883366</v>
+        <v>0.7595928012803946</v>
       </c>
       <c r="P8">
-        <v>0.8076479349223241</v>
+        <v>0.7818221335728009</v>
       </c>
       <c r="Q8">
-        <v>3.966357366772777</v>
+        <v>8.648690988926667</v>
       </c>
       <c r="R8">
-        <v>35.69721630095499</v>
+        <v>77.83821890034</v>
       </c>
       <c r="S8">
-        <v>0.004079460013704121</v>
+        <v>0.01337542289432309</v>
       </c>
       <c r="T8">
-        <v>0.004386556702623422</v>
+        <v>0.01446256766343324</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1148996666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="H9">
-        <v>0.344699</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="I9">
-        <v>0.005222247538993557</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="J9">
-        <v>0.005431273346901209</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>15.971694</v>
       </c>
       <c r="O9">
-        <v>0.1204763718863815</v>
+        <v>0.155109029208254</v>
       </c>
       <c r="P9">
-        <v>0.1245600404701547</v>
+        <v>0.1596482641062294</v>
       </c>
       <c r="Q9">
-        <v>0.6117141055673333</v>
+        <v>1.766064740152</v>
       </c>
       <c r="R9">
-        <v>5.505426950105999</v>
+        <v>15.894582661368</v>
       </c>
       <c r="S9">
-        <v>0.0006291574365905281</v>
+        <v>0.002731264510262885</v>
       </c>
       <c r="T9">
-        <v>0.000676519627894487</v>
+        <v>0.00295325972857099</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1148996666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="H10">
-        <v>0.344699</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="I10">
-        <v>0.005222247538993557</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="J10">
-        <v>0.005431273346901209</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.346311500000001</v>
+        <v>2.927739</v>
       </c>
       <c r="N10">
-        <v>8.692623000000001</v>
+        <v>5.855478</v>
       </c>
       <c r="O10">
-        <v>0.09835422102528196</v>
+        <v>0.08529816951135136</v>
       </c>
       <c r="P10">
-        <v>0.06779202460752112</v>
+        <v>0.05852960232096958</v>
       </c>
       <c r="Q10">
-        <v>0.4993897425795</v>
+        <v>0.9712012920359998</v>
       </c>
       <c r="R10">
-        <v>2.996338455477</v>
+        <v>5.827207752215999</v>
       </c>
       <c r="S10">
-        <v>0.000513630088698907</v>
+        <v>0.001501987758971443</v>
       </c>
       <c r="T10">
-        <v>0.0003681970163833004</v>
+        <v>0.00108271216371497</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.5402755</v>
+        <v>2.7186785</v>
       </c>
       <c r="H11">
-        <v>5.080551</v>
+        <v>5.437357</v>
       </c>
       <c r="I11">
-        <v>0.1154567969002575</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="J11">
-        <v>0.08005204898729699</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.52018166666667</v>
+        <v>26.07194833333334</v>
       </c>
       <c r="N11">
-        <v>103.560545</v>
+        <v>78.215845</v>
       </c>
       <c r="O11">
-        <v>0.7811694070883366</v>
+        <v>0.7595928012803946</v>
       </c>
       <c r="P11">
-        <v>0.8076479349223241</v>
+        <v>0.7818221335728009</v>
       </c>
       <c r="Q11">
-        <v>87.6907717433825</v>
+        <v>70.88124538694417</v>
       </c>
       <c r="R11">
-        <v>526.1446304602949</v>
+        <v>425.2874723216651</v>
       </c>
       <c r="S11">
-        <v>0.09019131757889269</v>
+        <v>0.1096196677093125</v>
       </c>
       <c r="T11">
-        <v>0.06465387205089114</v>
+        <v>0.07901965039484869</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.5402755</v>
+        <v>2.7186785</v>
       </c>
       <c r="H12">
-        <v>5.080551</v>
+        <v>5.437357</v>
       </c>
       <c r="I12">
-        <v>0.1154567969002575</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="J12">
-        <v>0.08005204898729699</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1184,22 @@
         <v>15.971694</v>
       </c>
       <c r="O12">
-        <v>0.1204763718863815</v>
+        <v>0.155109029208254</v>
       </c>
       <c r="P12">
-        <v>0.1245600404701547</v>
+        <v>0.1596482641062294</v>
       </c>
       <c r="Q12">
-        <v>13.524167653899</v>
+        <v>14.473967028793</v>
       </c>
       <c r="R12">
-        <v>81.145005923394</v>
+        <v>86.843802172758</v>
       </c>
       <c r="S12">
-        <v>0.01390981600016584</v>
+        <v>0.02238436200535607</v>
       </c>
       <c r="T12">
-        <v>0.009971286461576518</v>
+        <v>0.01613583125124458</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.5402755</v>
+        <v>2.7186785</v>
       </c>
       <c r="H13">
-        <v>5.080551</v>
+        <v>5.437357</v>
       </c>
       <c r="I13">
-        <v>0.1154567969002575</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="J13">
-        <v>0.08005204898729699</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.346311500000001</v>
+        <v>2.927739</v>
       </c>
       <c r="N13">
-        <v>8.692623000000001</v>
+        <v>5.855478</v>
       </c>
       <c r="O13">
-        <v>0.09835422102528196</v>
+        <v>0.08529816951135136</v>
       </c>
       <c r="P13">
-        <v>0.06779202460752112</v>
+        <v>0.05852960232096958</v>
       </c>
       <c r="Q13">
-        <v>11.04082861881825</v>
+        <v>7.9595810729115</v>
       </c>
       <c r="R13">
-        <v>44.163314475273</v>
+        <v>31.838324291646</v>
       </c>
       <c r="S13">
-        <v>0.01135566332119902</v>
+        <v>0.01230969669839639</v>
       </c>
       <c r="T13">
-        <v>0.005426890474829324</v>
+        <v>0.005915653336670182</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.315325</v>
+        <v>0.790022</v>
       </c>
       <c r="H14">
-        <v>0.945975</v>
+        <v>2.370066</v>
       </c>
       <c r="I14">
-        <v>0.01433167956883957</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="J14">
-        <v>0.01490531972629706</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.52018166666667</v>
+        <v>26.07194833333334</v>
       </c>
       <c r="N14">
-        <v>103.560545</v>
+        <v>78.215845</v>
       </c>
       <c r="O14">
-        <v>0.7811694070883366</v>
+        <v>0.7595928012803946</v>
       </c>
       <c r="P14">
-        <v>0.8076479349223241</v>
+        <v>0.7818221335728009</v>
       </c>
       <c r="Q14">
-        <v>10.88507628404167</v>
+        <v>20.59741276619667</v>
       </c>
       <c r="R14">
-        <v>97.96568655637499</v>
+        <v>185.37671489577</v>
       </c>
       <c r="S14">
-        <v>0.01119546963137043</v>
+        <v>0.03185442821688789</v>
       </c>
       <c r="T14">
-        <v>0.01203825069630081</v>
+        <v>0.03444353327043221</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.315325</v>
+        <v>0.790022</v>
       </c>
       <c r="H15">
-        <v>0.945975</v>
+        <v>2.370066</v>
       </c>
       <c r="I15">
-        <v>0.01433167956883957</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="J15">
-        <v>0.01490531972629706</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>15.971694</v>
       </c>
       <c r="O15">
-        <v>0.1204763718863815</v>
+        <v>0.155109029208254</v>
       </c>
       <c r="P15">
-        <v>0.1245600404701547</v>
+        <v>0.1596482641062294</v>
       </c>
       <c r="Q15">
-        <v>1.67875813685</v>
+        <v>4.205996545756</v>
       </c>
       <c r="R15">
-        <v>15.10882323165</v>
+        <v>37.853968911804</v>
       </c>
       <c r="S15">
-        <v>0.001726628757491971</v>
+        <v>0.006504681756300133</v>
       </c>
       <c r="T15">
-        <v>0.001856607228328157</v>
+        <v>0.007033377618999864</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.315325</v>
+        <v>0.790022</v>
       </c>
       <c r="H16">
-        <v>0.945975</v>
+        <v>2.370066</v>
       </c>
       <c r="I16">
-        <v>0.01433167956883957</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="J16">
-        <v>0.01490531972629706</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.346311500000001</v>
+        <v>2.927739</v>
       </c>
       <c r="N16">
-        <v>8.692623000000001</v>
+        <v>5.855478</v>
       </c>
       <c r="O16">
-        <v>0.09835422102528196</v>
+        <v>0.08529816951135136</v>
       </c>
       <c r="P16">
-        <v>0.06779202460752112</v>
+        <v>0.05852960232096958</v>
       </c>
       <c r="Q16">
-        <v>1.3705006737375</v>
+        <v>2.312978220258</v>
       </c>
       <c r="R16">
-        <v>8.223004042425002</v>
+        <v>13.877869321548</v>
       </c>
       <c r="S16">
-        <v>0.001409581179977164</v>
+        <v>0.003577080263466429</v>
       </c>
       <c r="T16">
-        <v>0.001010461801668101</v>
+        <v>0.002578548519258263</v>
       </c>
     </row>
   </sheetData>
